--- a/src/assets/files/Manage_Audit.xlsx
+++ b/src/assets/files/Manage_Audit.xlsx
@@ -41,8 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -130,7 +131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,11 +140,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,22 +173,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -247,41 +244,42 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="1"/>
     </row>
   </sheetData>

--- a/src/assets/files/Manage_Audit.xlsx
+++ b/src/assets/files/Manage_Audit.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,33 +21,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Audit Name</t>
+    <t>Audit Name</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
   <si>
-    <t xml:space="preserve">End Date</t>
+    <t>End Date</t>
   </si>
   <si>
     <t xml:space="preserve">Maker </t>
   </si>
   <si>
-    <t xml:space="preserve">Auditor Name</t>
+    <t>Auditor Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -56,22 +51,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -79,7 +59,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -95,13 +75,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -109,77 +89,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -238,66 +178,353 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.58"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/assets/files/Manage_Audit.xlsx
+++ b/src/assets/files/Manage_Audit.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,33 +21,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Audit Name</t>
+    <t>Audit Name</t>
   </si>
   <si>
     <t xml:space="preserve">Start Date </t>
   </si>
   <si>
-    <t xml:space="preserve">End Date</t>
+    <t>End Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Maker (Email)</t>
+    <t>Maker (Email)</t>
   </si>
   <si>
-    <t xml:space="preserve">Auditor Name (Email)</t>
+    <t>Auditor Name (Email)</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -56,22 +51,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -79,7 +59,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -101,7 +81,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -109,85 +89,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -246,32 +184,319 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.57"/>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="31.35" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -292,7 +517,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -303,10 +528,9 @@
       <c r="K3" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/assets/files/Manage_Audit.xlsx
+++ b/src/assets/files/Manage_Audit.xlsx
@@ -73,9 +73,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF211E1E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -95,17 +95,45 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FF24989B"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -134,36 +162,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,8 +203,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -240,16 +276,16 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF24989B"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF211E1E"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -260,10 +296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="A:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,14 +308,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="29.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -288,23 +324,44 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/assets/files/Manage_Audit.xlsx
+++ b/src/assets/files/Manage_Audit.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Audit Name</t>
   </si>
@@ -31,14 +31,17 @@
     <t>Auditor Name (Email)</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>sample@gmail.com</t>
+  </si>
+  <si>
+    <t>Type(Self/Aided)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -56,6 +59,13 @@
       <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,10 +143,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,8 +189,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,7 +536,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -546,14 +564,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="4"/>
@@ -582,8 +604,11 @@
       <c r="E6" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
